--- a/medicine/Mort/Cimetière_de_Camp_Hill/Cimetière_de_Camp_Hill.xlsx
+++ b/medicine/Mort/Cimetière_de_Camp_Hill/Cimetière_de_Camp_Hill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Camp_Hill</t>
+          <t>Cimetière_de_Camp_Hill</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Camp Hill est un cimetière canadien situé à Halifax, en Nouvelle-Écosse.
 Le cimetière de Camp Hill a été fondé en 1844 pour remplacer le Old Burying Groundet, le tout premier cimetière d'Halifax qui avait lui-même été fondé en 1749. Il est le lieu de repos de la plupart des notables d'Halifax, de soldats canadiens, ainsi que de quelques soldats norvégiens de la Seconde Guerre mondiale. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Camp_Hill</t>
+          <t>Cimetière_de_Camp_Hill</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Célébrités enterrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Edith Archibald (1854-1936), écrivain et suffragette canadienne.
 Abraham Gesner (1797-1864), médecin et géologue
